--- a/biology/Médecine/Didier_Mellière/Didier_Mellière.xlsx
+++ b/biology/Médecine/Didier_Mellière/Didier_Mellière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Didier_Melli%C3%A8re</t>
+          <t>Didier_Mellière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didier Mellière est un chirurgien français, enseignant, auteur et coach en art oratoire (bénévole) pour prédicateurs et orateurs catholiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Didier_Melli%C3%A8re</t>
+          <t>Didier_Mellière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Didier Mellière est né en 1937 dans une famille liée à la médecine (son père était chirurgien des Hôpitaux de Paris et son grand-père fut président de l’Académie de médecine en 1932). Après une scolarité au collège Saint Louis de Gonzague puis au lycée Janson de Sailly à Paris, il devient interne des hôpitaux de Paris en 1960, puis chef de clinique et prosecteur d’anatomie, et enfin professeur - chirurgien des hôpitaux, en 1971, au CHU Henri Mondor (UPEC) où il exerça comme chef du service de chirurgie vasculaire et enseigna durant 35 ans.
-Chef d'une antenne chirurgicale durant la Guerre d'Algérie puis membre d'une mission lors du tremblement de terre de Skopje, il participa à l'amélioration des secours d'urgence[1]. Il contribua à la rationalisation de la formation des étudiants en médecine puis à celle des chirurgiens[2], notamment par la fondation du Collège de Chirurgie Vasculaire[3] (1978) dont la mission est d'organiser un enseignement d'excellence sur toute la France[4]. Il joua un rôle majeur dans l'individualisation de cette discipline par les ministères (Santé et Éducation Nationale). Il milita pour l'utilisation d'évaluations des résultats chirurgicaux dans les stratégies d'amélioration (le premier audit médical en France fut réalisé dans son service en 1978).
-En 2006, après son départ à la retraite, il met ses compétences au service de l'Église catholique et créa en France et en Belgique un réseau d'ateliers d'entrainement à la communication orale pour les prédicateurs et orateurs catholiques[5],[6],[7].
+Chef d'une antenne chirurgicale durant la Guerre d'Algérie puis membre d'une mission lors du tremblement de terre de Skopje, il participa à l'amélioration des secours d'urgence. Il contribua à la rationalisation de la formation des étudiants en médecine puis à celle des chirurgiens, notamment par la fondation du Collège de Chirurgie Vasculaire (1978) dont la mission est d'organiser un enseignement d'excellence sur toute la France. Il joua un rôle majeur dans l'individualisation de cette discipline par les ministères (Santé et Éducation Nationale). Il milita pour l'utilisation d'évaluations des résultats chirurgicaux dans les stratégies d'amélioration (le premier audit médical en France fut réalisé dans son service en 1978).
+En 2006, après son départ à la retraite, il met ses compétences au service de l'Église catholique et créa en France et en Belgique un réseau d'ateliers d'entrainement à la communication orale pour les prédicateurs et orateurs catholiques.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Didier_Melli%C3%A8re</t>
+          <t>Didier_Mellière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,14 +560,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-Tous ces Catholiques qui ont déserté l’Église, comment leur donner envie de revenir, l’Harmattan, 2021, 176 p. (ISBN 978-2-343-23913-2) Présentation [1]
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tous ces Catholiques qui ont déserté l’Église, comment leur donner envie de revenir, l’Harmattan, 2021, 176 p. (ISBN 978-2-343-23913-2) Présentation 
 Homélies et Prises de parole publiques, trente exercices pour se perfectionner, Salvator, 2018, 336 p. (ISBN 978-2-7067-1728-4)
 (it) Quando preti e laici parlano in publicco - Con trenta esercizi pratici per migliorare, Queriniana, 2020, 384 p. (ISBN 978-88-399-1879-6)
 Petite Histoire du traitement des maladies artérielles et de ses pionniers, des origines à l’an 2000, Européenne d’édition, 2000
-Didier Mellière et Henri Guidicelli, Le Sauvetage des membres en ischémie critique, Paris, Masson, coll. « Monographies de l'association française de chirurgie », janvier 1989, 149 p. (ISBN 2-225-81822-3, EAN 9782225818226)
-Articles
-« Qu'est-ce que l'enseignement dit intégré ? », La Presse Médicale (Masson), vol. 78, no 21,‎ avril 1970, p. 985-986
+Didier Mellière et Henri Guidicelli, Le Sauvetage des membres en ischémie critique, Paris, Masson, coll. « Monographies de l'association française de chirurgie », janvier 1989, 149 p. (ISBN 2-225-81822-3, EAN 9782225818226)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Didier_Mellière</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Didier_Melli%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Qu'est-ce que l'enseignement dit intégré ? », La Presse Médicale (Masson), vol. 78, no 21,‎ avril 1970, p. 985-986
 « Une solution : les vérifications internes », Le Monde,‎ 18 janvier 1978 (lire en ligne, consulté le 15 mars 2024)
 « L'auto évaluation annuelle en chirurgie artérielle, fondement de l'optimisation des indications et des résultats », Bulletin de l'Académie Nationale de Médecine, vol. 186,‎ 2002, p. 615-663
 « L'audit Médical - Incidence sur les résultats médicaux, les coûts, la formation des médecins », Nouvelle Presse Médicale, Masson éditeur, vol. 9,‎ 1980, p. 339-342</t>
